--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nemanja\Desktop\finalProject\demoYoMealsTest\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487037FF-02E4-4286-9DB3-3014B7945F0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CD62E05-3796-467B-A016-3514B34A0F8E}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19080" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Meal Search Results" sheetId="1" r:id="rId1"/>
     <sheet name="Meals" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -157,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -330,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -524,17 +519,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D125064-A80C-4E0B-B62B-0471756023FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -542,6 +537,10 @@
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -713,22 +712,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{ABF6864D-91D5-4987-B515-0CF051E49C55}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{647C1E83-E788-48CD-913E-2CB745EEA633}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7FCE4B8F-8D04-49D8-87A4-E26D56159857}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{FB4BAD4A-0181-45E6-BB2D-BB527CB7BF9A}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{A5AAFA96-F987-42D6-800C-6D2643080375}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{F268432D-FCF2-448D-AAE6-0CFD65E47FB9}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F997C670-218A-4B27-BB36-4851FCE75098}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -788,11 +787,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{CB10236E-DA32-4AC3-BCAF-412026398467}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{9CB9EE5E-B01F-446C-83B8-70A318877444}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{AD108ABD-8727-4280-8CA2-05CA34657092}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{242AFD57-95B3-454A-97A7-628719DD3235}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{F9D3D588-97B7-4927-B9ED-6F25AD97EB4F}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -153,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +177,12 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +219,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,17 +537,19 @@
   <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -555,7 +564,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -720,6 +729,7 @@
     <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
